--- a/PubSheet.xlsx
+++ b/PubSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="288">
   <si>
     <t>Pub</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Calibar</t>
   </si>
   <si>
-    <t>Det Akademiske Kvarter</t>
-  </si>
-  <si>
     <t>Dr. Wiesener</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Dråpen Vinbar</t>
   </si>
   <si>
-    <t>Dubliner Pub</t>
-  </si>
-  <si>
     <t>Felix Sportsbar</t>
   </si>
   <si>
@@ -98,30 +92,12 @@
     <t>Garage</t>
   </si>
   <si>
-    <t>Hanne På Høyden</t>
-  </si>
-  <si>
-    <t>Harbour Café</t>
-  </si>
-  <si>
     <t>Inside Live &amp; Rock Café</t>
   </si>
   <si>
-    <t>Klosteret Kaffebar</t>
-  </si>
-  <si>
-    <t>Kontoret</t>
-  </si>
-  <si>
     <t>Legal</t>
   </si>
   <si>
-    <t>Lysverket AS</t>
-  </si>
-  <si>
-    <t>Metro Nightclub</t>
-  </si>
-  <si>
     <t>No Stress</t>
   </si>
   <si>
@@ -185,123 +161,36 @@
     <t>Champions Sportsbar AS</t>
   </si>
   <si>
-    <t>Chili Bar &amp; Restaurant</t>
-  </si>
-  <si>
-    <t>Clarion Hotel Admiral</t>
-  </si>
-  <si>
-    <t>Cornelius Sjømat Restaurant</t>
-  </si>
-  <si>
-    <t>Den Nationale Scene</t>
-  </si>
-  <si>
-    <t>Ditleg/Exodus</t>
-  </si>
-  <si>
-    <t>Dromedar Kaffebar AS Avd Galleriet</t>
-  </si>
-  <si>
-    <t>Dyvekes Vinkjeller</t>
-  </si>
-  <si>
-    <t>Eat Restaurant &amp; Bar</t>
-  </si>
-  <si>
     <t>Elefanten</t>
   </si>
   <si>
-    <t>FG Restaurant &amp; Bar</t>
-  </si>
-  <si>
-    <t>Flaaten</t>
-  </si>
-  <si>
     <t>Folk &amp; Røvere</t>
   </si>
   <si>
-    <t>Gawan Holding AS</t>
-  </si>
-  <si>
-    <t>Grieghallen</t>
-  </si>
-  <si>
-    <t>Harmoni Restaurant &amp; Bar</t>
-  </si>
-  <si>
-    <t>Havfruo AS</t>
-  </si>
-  <si>
     <t>Henrik Øl &amp; Vinstove AS</t>
   </si>
   <si>
     <t>Hulen I Bergen</t>
   </si>
   <si>
-    <t>Jacob Aall Brassiere &amp; Bar</t>
-  </si>
-  <si>
-    <t>Kanel</t>
-  </si>
-  <si>
-    <t>Landmark</t>
-  </si>
-  <si>
-    <t>Logen Teater AS</t>
-  </si>
-  <si>
-    <t>Lydgalleriet</t>
-  </si>
-  <si>
-    <t>Magnus Barfot Bar &amp; Kjøkken</t>
-  </si>
-  <si>
-    <t>Maharaja Indisk Restaurant &amp; Bar</t>
-  </si>
-  <si>
-    <t>Mezzo Restaurant &amp; Bar</t>
-  </si>
-  <si>
-    <t>Musikkhuset AS</t>
-  </si>
-  <si>
-    <t>Ole Bull Scene AS</t>
-  </si>
-  <si>
     <t>Onkel Lauritz</t>
   </si>
   <si>
-    <t>Naboen Pub &amp; Restaurant</t>
-  </si>
-  <si>
-    <t>Pacamara Drift AS</t>
-  </si>
-  <si>
     <t>Pergola Mat &amp; Vinbar AS</t>
   </si>
   <si>
-    <t>Privaten Bar</t>
-  </si>
-  <si>
     <t>Red Sun Restaurant &amp; Bar AS</t>
   </si>
   <si>
     <t>Rubinen Nightclub</t>
   </si>
   <si>
-    <t>Scandic Strand</t>
-  </si>
-  <si>
     <t>Sinco AS</t>
   </si>
   <si>
     <t>Sjøboden</t>
   </si>
   <si>
-    <t>Sumo</t>
-  </si>
-  <si>
     <t>Swing'n'Sweet Jazzclub</t>
   </si>
   <si>
@@ -344,9 +233,6 @@
     <t>http://www.augustin.no/altona/</t>
   </si>
   <si>
-    <t>10.00-24.00 man-fre</t>
-  </si>
-  <si>
     <t>man-tor 17.00-24.00, fre-lør 18.00-01.30</t>
   </si>
   <si>
@@ -501,13 +387,514 @@
   </si>
   <si>
     <t>bts@bergents.org</t>
+  </si>
+  <si>
+    <t>http://www.calibar.no/</t>
+  </si>
+  <si>
+    <t>tor 22.00-03.00, fre-lør 18.00-03.00</t>
+  </si>
+  <si>
+    <t>tor 20, fre-lør 24</t>
+  </si>
+  <si>
+    <t>booking@calibar.no</t>
+  </si>
+  <si>
+    <t>Sportsbar</t>
+  </si>
+  <si>
+    <t>Metz Bergen</t>
+  </si>
+  <si>
+    <t>https://intern.kvarteret.no/wiki/Gr%C3%B8ndahls_flygel-_og_pianolager</t>
+  </si>
+  <si>
+    <t>Grøndahls Flygel- og Pianolager</t>
+  </si>
+  <si>
+    <t>Pubquiz, fotballpub og jam</t>
+  </si>
+  <si>
+    <t>man 17.00-01.00 tir-ons 20.00-01.00 tor-lør 19.00-03.30</t>
+  </si>
+  <si>
+    <t>http://exodus.no/</t>
+  </si>
+  <si>
+    <t>Ditlef &amp; Exodus</t>
+  </si>
+  <si>
+    <t>lør 23.00-03.00</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DrWiesener</t>
+  </si>
+  <si>
+    <t>søn-tor 13.00-01.00 fre-lør 13.00-02.00</t>
+  </si>
+  <si>
+    <t>drwiesener@gmail.com</t>
+  </si>
+  <si>
+    <t>Showbar</t>
+  </si>
+  <si>
+    <t>http://www.dreams.no/bergen</t>
+  </si>
+  <si>
+    <t>man-lør 22.00-sent</t>
+  </si>
+  <si>
+    <t>bergen@dreams.no</t>
+  </si>
+  <si>
+    <t>250,-</t>
+  </si>
+  <si>
+    <t>http://www.draapenvinbar.no/</t>
+  </si>
+  <si>
+    <t>man-tor 16.00-01.00, fre 16.00-02.00, lør 13.00-02.00, søn 18.00-24.00</t>
+  </si>
+  <si>
+    <t>Irsk Pub</t>
+  </si>
+  <si>
+    <t>http://www.dyvekes.no/</t>
+  </si>
+  <si>
+    <t>1500-talls atmosfære</t>
+  </si>
+  <si>
+    <t>Frille og Dyvekes Vinkjeller</t>
+  </si>
+  <si>
+    <t>dyveke@dyvekes-vinkjeller.no</t>
+  </si>
+  <si>
+    <t>man-tor 15.00-01.00, fre 15.00-02.00, lør 12.00-02.00, søn 15.00-01.00</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/Elefanten/179171138782914</t>
+  </si>
+  <si>
+    <t>man 12.00-01.00, tir-lør 12.00-02.30, søn 14.00-01.00</t>
+  </si>
+  <si>
+    <t>godserveringas@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.felixbergen.no/</t>
+  </si>
+  <si>
+    <t>man-søn 12.00-03.30</t>
+  </si>
+  <si>
+    <t>man-fre 10.00-24.00</t>
+  </si>
+  <si>
+    <t>Live musikk hver dag, live fotball på storskjerm</t>
+  </si>
+  <si>
+    <t>post@felixbergen.no</t>
+  </si>
+  <si>
+    <t>http://www.femteiandre.no/</t>
+  </si>
+  <si>
+    <t>man-tor 18.00-01.00, fre-lør 18.00-02.00</t>
+  </si>
+  <si>
+    <t>post@femteiandre.no</t>
+  </si>
+  <si>
+    <t>Bar/Akevittbar</t>
+  </si>
+  <si>
+    <t>http://www.ricks.no/?page_id=62</t>
+  </si>
+  <si>
+    <t>man-søn 14.00-03.00</t>
+  </si>
+  <si>
+    <t>michael@ricks.no</t>
+  </si>
+  <si>
+    <t>Sport på storskjerm</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/Folk-og-R%C3%B8vere/77216632784?ref=ts&amp;fref=ts#</t>
+  </si>
+  <si>
+    <t>man-ons 15.00-01.30, tor-fre 15.00-03.00, lør 12.00-03.00, søn 12.00-01.30</t>
+  </si>
+  <si>
+    <t>folkets@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.fotballpuben.no/</t>
+  </si>
+  <si>
+    <t>Downstairs</t>
+  </si>
+  <si>
+    <t>tor-lør 18-25</t>
+  </si>
+  <si>
+    <t>http://www.downstairssportsbar.no/</t>
+  </si>
+  <si>
+    <t>post@fotballpuben.no</t>
+  </si>
+  <si>
+    <t>tor-lør</t>
+  </si>
+  <si>
+    <t>I kjelleren til Fotballpuben</t>
+  </si>
+  <si>
+    <t>Fotball hele tiden, karaokekvelder</t>
+  </si>
+  <si>
+    <t>http://garage.no/</t>
+  </si>
+  <si>
+    <t>man-tor 15.00-03.00, fre-lør 15.00-03.30, søn 17.00-03.00</t>
+  </si>
+  <si>
+    <t>post@garage.no</t>
+  </si>
+  <si>
+    <t>Rockeklubb</t>
+  </si>
+  <si>
+    <t>Live rockemusikk</t>
+  </si>
+  <si>
+    <t>man-fre 16.00-00.30, lør 14.00-00.30, søn 16.00-00.30</t>
+  </si>
+  <si>
+    <t>Øl/Vin/Classic</t>
+  </si>
+  <si>
+    <t>http://ve.no/Index_henrik.html</t>
+  </si>
+  <si>
+    <t>henrik@ve.no</t>
+  </si>
+  <si>
+    <t>Midten av juni til midten av august er åpningstidene 16.00 alle dagar, kan tilby 54 øltypar på fat, 150-200 ulike flaskeøl, har øl eksklusiv for Henrik øl og vinstove, ingen musikk, ingen blits på kamera/telefon, ingen reservering</t>
+  </si>
+  <si>
+    <t>18/20 (mindreårig med verge)</t>
+  </si>
+  <si>
+    <t>tor-fre 21.00-03.00, lør 21.00-03.30</t>
+  </si>
+  <si>
+    <t>Bar/Student/Konsert</t>
+  </si>
+  <si>
+    <t>http://www.hulen.no</t>
+  </si>
+  <si>
+    <t>hulen@hulen.no</t>
+  </si>
+  <si>
+    <t>Livemusikk/konserter hele året</t>
+  </si>
+  <si>
+    <t>Inside Bergen Rock Café</t>
+  </si>
+  <si>
+    <t>man-tor 15.00-22.30, fre-lør 12.00-03.00, søn 12.00-22.30</t>
+  </si>
+  <si>
+    <t>Bar/Pub/Restaurant/American</t>
+  </si>
+  <si>
+    <t>www.insderock.no</t>
+  </si>
+  <si>
+    <t>frode@insidergruppen.no</t>
+  </si>
+  <si>
+    <t>Rock'n'Roll, Billiard, Flipperspill, studenter 20% avslag på burgere</t>
+  </si>
+  <si>
+    <t>man-tir 14.00-23.00, ons-tor 14.00-01.30, fre-lør 12.00-03.30, søn 12.00-23.00</t>
+  </si>
+  <si>
+    <t>Bar/Cafe/Restaurant</t>
+  </si>
+  <si>
+    <t>Burger, Gitarbasert musikk, quiz onsdager</t>
+  </si>
+  <si>
+    <t>man-sun 16.00-03.00</t>
+  </si>
+  <si>
+    <t>Bar/Cotctails/Disco/Rock/Retro</t>
+  </si>
+  <si>
+    <t>Tikibar, Retro</t>
+  </si>
+  <si>
+    <t>Metro Nightclub &amp; SOHO</t>
+  </si>
+  <si>
+    <t>Nattklubb + lounge</t>
+  </si>
+  <si>
+    <t>http://www.metronightclub.no</t>
+  </si>
+  <si>
+    <t>metro@sincoas.no</t>
+  </si>
+  <si>
+    <t>No effort no entrance</t>
+  </si>
+  <si>
+    <t>tor 22.00-02.30, fre-lør 23.00-02.30</t>
+  </si>
+  <si>
+    <t>man-fre 17.00-01.00, lør-søn 17.00-02.30</t>
+  </si>
+  <si>
+    <t>http://no-stress.no</t>
+  </si>
+  <si>
+    <t>bergen@no-stress.no</t>
+  </si>
+  <si>
+    <t>Coctailbar, brettspill, bordtennis</t>
+  </si>
+  <si>
+    <t>Bar/Pub/Lounge</t>
+  </si>
+  <si>
+    <t>http://www.boha.no/onkel-lauritz/</t>
+  </si>
+  <si>
+    <t>fre-lør 23.00-03.00</t>
+  </si>
+  <si>
+    <t>http://www.xn--ovenp-qra.no</t>
+  </si>
+  <si>
+    <t>post@ovenpa.com</t>
+  </si>
+  <si>
+    <t>åpen hver dag</t>
+  </si>
+  <si>
+    <t>Restaurant &amp; Bar</t>
+  </si>
+  <si>
+    <t>http://www.redsun.no/</t>
+  </si>
+  <si>
+    <t>http://www.ricks.no/?page_id=968</t>
+  </si>
+  <si>
+    <t>55 55 31 31</t>
+  </si>
+  <si>
+    <t>post@ricks.no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aldersgrense på 23 år </t>
+  </si>
+  <si>
+    <t>55 31 74 70</t>
+  </si>
+  <si>
+    <t>Hele uke</t>
+  </si>
+  <si>
+    <t>Restaurant og bar</t>
+  </si>
+  <si>
+    <t>http://isalsa.no/</t>
+  </si>
+  <si>
+    <t>55 23 21 00</t>
+  </si>
+  <si>
+    <t>http://isalsa.no/bordbestiiling/</t>
+  </si>
+  <si>
+    <t>Fredag og lørdag fra kl:23</t>
+  </si>
+  <si>
+    <t>http://planetbergen.no/</t>
+  </si>
+  <si>
+    <t>scruffy@planetbergen.no</t>
+  </si>
+  <si>
+    <t>Alle dager fra 18-03</t>
+  </si>
+  <si>
+    <t>http://www.sjoboden-bergen.no/</t>
+  </si>
+  <si>
+    <t>MORTEN@BERGENSERVERING.NO</t>
+  </si>
+  <si>
+    <t>http://www.skipperstuenpub.no/</t>
+  </si>
+  <si>
+    <t>55 90 28 05</t>
+  </si>
+  <si>
+    <t>post@skipperstuenpub.no</t>
+  </si>
+  <si>
+    <t>seson</t>
+  </si>
+  <si>
+    <t>jazz klub</t>
+  </si>
+  <si>
+    <t>www.swing-n-sweet.no</t>
+  </si>
+  <si>
+    <t>920 49 597</t>
+  </si>
+  <si>
+    <t>kontakt@swing-n-sweet.no</t>
+  </si>
+  <si>
+    <t>Restaurant og Bar</t>
+  </si>
+  <si>
+    <t>http://www.grandterminus.no/whiskybar/</t>
+  </si>
+  <si>
+    <t>55 21 25 00</t>
+  </si>
+  <si>
+    <t>restaurant@grandterminus.no</t>
+  </si>
+  <si>
+    <t>http://www.thescotsman.no/</t>
+  </si>
+  <si>
+    <t>christer@bergenservering.no</t>
+  </si>
+  <si>
+    <t>20% rabat for studenetr</t>
+  </si>
+  <si>
+    <t>http://www.ricks.no/?page_id=66</t>
+  </si>
+  <si>
+    <t>55 56 03 12 / 934 35 439</t>
+  </si>
+  <si>
+    <t>frode@ricks.no</t>
+  </si>
+  <si>
+    <t>Onsdag 21-02, Tor-Lør 20-02:30</t>
+  </si>
+  <si>
+    <t>tonga@planetbergen.no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55 30 09 00</t>
+  </si>
+  <si>
+    <t>Man til Lør</t>
+  </si>
+  <si>
+    <t>http://www.vistabrasserie.no/</t>
+  </si>
+  <si>
+    <t>417 66 640</t>
+  </si>
+  <si>
+    <t>post@vistabrasserie.no</t>
+  </si>
+  <si>
+    <t>http://www.visitbergen.com/no/Produkt/?TLp=403302</t>
+  </si>
+  <si>
+    <t>55 90 03 80</t>
+  </si>
+  <si>
+    <t>post@vaagenpub.no</t>
+  </si>
+  <si>
+    <t>http://unabryggeri.no/mikrobryggeri</t>
+  </si>
+  <si>
+    <t>482 61 774</t>
+  </si>
+  <si>
+    <t>post@unamikrobryggeri.no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Man–Tor: 12.00–23.00, Fre–Lørd: 14.00 - 24.00, Søn: 14.00 - 23.00</t>
+  </si>
+  <si>
+    <t>Bergens akevittbar</t>
+  </si>
+  <si>
+    <t>http://www.wesselbar.no/</t>
+  </si>
+  <si>
+    <t>55 55 49 55</t>
+  </si>
+  <si>
+    <t>Mangfold av restauranter, barer</t>
+  </si>
+  <si>
+    <t>55 55 31 55</t>
+  </si>
+  <si>
+    <t>christine@ricks.no</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/Pergola-mat-og-vinbar/159269090772987?fref=ts</t>
+  </si>
+  <si>
+    <t>man 15.00-24.00, tir-tor 15.00-01.00, fre 15.00-02.00, lør 12.00-02.00</t>
+  </si>
+  <si>
+    <t>bjorn@pergola.no</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/metzbergen</t>
+  </si>
+  <si>
+    <t>garmanni@live.no</t>
+  </si>
+  <si>
+    <t>man-ons 12.00-01.30, tor-lør 12.00-03.00, søn 12.00-01.30</t>
+  </si>
+  <si>
+    <t>Sportsbar med spillmaskiner</t>
+  </si>
+  <si>
+    <t>Bryggeri</t>
+  </si>
+  <si>
+    <t>man-tor 18.00-01.30, fre-lør 18.00-03.00, søn 18.00-01.30</t>
+  </si>
+  <si>
+    <t>fre-lør 22.00 – 03.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pub </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,6 +925,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF141823"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -560,12 +953,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -847,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,7 +1259,7 @@
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
     <col min="6" max="6" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -874,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -892,13 +1292,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -909,70 +1309,70 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="G3">
         <v>55589745</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <v>55304000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="G5">
         <v>55306955</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -986,19 +1386,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="G7">
         <v>53051515</v>
@@ -1006,31 +1406,31 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="G8">
         <v>55011885</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1041,13 +1441,13 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="G9" s="4">
         <v>98145707</v>
@@ -1061,16 +1461,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1081,22 +1481,22 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="G11">
         <v>55705415</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1107,65 +1507,65 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="G12">
         <v>55961500</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="G14">
         <v>55230315</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1176,711 +1576,1125 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16">
+        <v>45081055</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17">
+        <v>55901518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18">
+        <v>55321399</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19">
+        <v>55336666</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20">
+        <v>41623969</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21">
+        <v>55902390</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22">
+        <v>90299900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24">
+        <v>40411312</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26">
+        <v>55553139</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27">
+        <v>45243457</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28">
+        <v>55336666</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="B29">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29">
+        <v>55323060</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30">
+        <v>55321980</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="B31">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33">
+        <v>55323131</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34">
+        <v>55901900</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35">
+        <v>55901900</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37">
+        <v>90730941</v>
+      </c>
+      <c r="K37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39">
         <v>20</v>
       </c>
-      <c r="B33">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39">
+        <v>55705008</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="B40">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>282</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G40">
+        <v>46922940</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G41">
+        <v>93833312</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" t="s">
+        <v>215</v>
+      </c>
+      <c r="F42" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42">
+        <v>55313160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
       <c r="B43">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43">
+        <v>55322277</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s">
+        <v>277</v>
+      </c>
+      <c r="G44">
+        <v>55018673</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45">
+        <v>55313100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B46">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" t="s">
+        <v>223</v>
+      </c>
+      <c r="G46" t="s">
+        <v>224</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" t="s">
+        <v>234</v>
+      </c>
+      <c r="G49">
+        <v>55300920</v>
+      </c>
+      <c r="H49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>18</v>
       </c>
-      <c r="C50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" t="s">
-        <v>149</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51">
+        <v>55316777</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>239</v>
+      </c>
+      <c r="G52" t="s">
+        <v>240</v>
+      </c>
+      <c r="H52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G54" t="s">
+        <v>245</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" t="s">
+        <v>247</v>
+      </c>
+      <c r="F55" t="s">
+        <v>248</v>
+      </c>
+      <c r="G55" t="s">
+        <v>249</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>18</v>
       </c>
-      <c r="C56" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" t="s">
-        <v>134</v>
-      </c>
-      <c r="F56" t="s">
-        <v>132</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" t="s">
+        <v>251</v>
+      </c>
+      <c r="G57">
+        <v>41422222</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B59">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" t="s">
+        <v>255</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>260</v>
+      </c>
+      <c r="D62" t="s">
+        <v>287</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G62" t="s">
+        <v>262</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G64" t="s">
+        <v>265</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>76</v>
       </c>
-      <c r="B60">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>81</v>
-      </c>
       <c r="B66">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" t="s">
+        <v>284</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G66" t="s">
+        <v>268</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="B67">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G67" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B68">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>228</v>
+      </c>
+      <c r="D68" t="s">
+        <v>274</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G68" t="s">
+        <v>275</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B69">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>42</v>
-      </c>
-      <c r="B90">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>114</v>
-      </c>
-      <c r="B96">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99">
         <v>18</v>
       </c>
     </row>
@@ -1891,14 +2705,56 @@
     <hyperlink ref="H5" r:id="rId3" display="mailto:restaurant@tokokker.no"/>
     <hyperlink ref="H8" r:id="rId4" display="mailto:booking@biblioteketbar.no"/>
     <hyperlink ref="H10" r:id="rId5"/>
-    <hyperlink ref="H56" r:id="rId6"/>
+    <hyperlink ref="H38" r:id="rId6"/>
     <hyperlink ref="H11" r:id="rId7" display="mailto:brukbar@sincoas.no"/>
     <hyperlink ref="H12" r:id="rId8"/>
-    <hyperlink ref="H50" r:id="rId9"/>
+    <hyperlink ref="H36" r:id="rId9"/>
     <hyperlink ref="H14" r:id="rId10"/>
     <hyperlink ref="H15" r:id="rId11"/>
+    <hyperlink ref="H16" r:id="rId12" display="mailto:booking@calibar.no"/>
+    <hyperlink ref="H20" r:id="rId13" display="mailto:drwiesener@gmail.com"/>
+    <hyperlink ref="H21" r:id="rId14" display="mailto:bergen@dreams.no"/>
+    <hyperlink ref="H29" r:id="rId15"/>
+    <hyperlink ref="H23" r:id="rId16" display="mailto:godserveringas@gmail.com"/>
+    <hyperlink ref="H24" r:id="rId17" display="mailto:post@felixbergen.no"/>
+    <hyperlink ref="H25" r:id="rId18" display="mailto:post@femteiandre.no"/>
+    <hyperlink ref="H26" r:id="rId19"/>
+    <hyperlink ref="H27" r:id="rId20" display="mailto:folkets@gmail.com"/>
+    <hyperlink ref="H19" r:id="rId21"/>
+    <hyperlink ref="H28" r:id="rId22"/>
+    <hyperlink ref="H30" r:id="rId23"/>
+    <hyperlink ref="F36" r:id="rId24"/>
+    <hyperlink ref="H32" r:id="rId25"/>
+    <hyperlink ref="H33" r:id="rId26"/>
+    <hyperlink ref="F34" r:id="rId27"/>
+    <hyperlink ref="H34" r:id="rId28"/>
+    <hyperlink ref="F35" r:id="rId29"/>
+    <hyperlink ref="H35" r:id="rId30"/>
+    <hyperlink ref="H39" r:id="rId31"/>
+    <hyperlink ref="H41" r:id="rId32"/>
+    <hyperlink ref="H43" r:id="rId33"/>
+    <hyperlink ref="F43" r:id="rId34"/>
+    <hyperlink ref="H46" r:id="rId35"/>
+    <hyperlink ref="H59" r:id="rId36"/>
+    <hyperlink ref="F59" r:id="rId37"/>
+    <hyperlink ref="F68" r:id="rId38"/>
+    <hyperlink ref="H68" r:id="rId39"/>
+    <hyperlink ref="F67" r:id="rId40"/>
+    <hyperlink ref="F66" r:id="rId41"/>
+    <hyperlink ref="H66" r:id="rId42"/>
+    <hyperlink ref="H64" r:id="rId43"/>
+    <hyperlink ref="F62" r:id="rId44"/>
+    <hyperlink ref="H62" r:id="rId45"/>
+    <hyperlink ref="F60" r:id="rId46" display="www.planetbergen.no"/>
+    <hyperlink ref="H57" r:id="rId47"/>
+    <hyperlink ref="H55" r:id="rId48"/>
+    <hyperlink ref="F54" r:id="rId49" tooltip="Besøk SWING N SWEET JAZZCLUB"/>
+    <hyperlink ref="H54" r:id="rId50"/>
+    <hyperlink ref="H51" r:id="rId51"/>
+    <hyperlink ref="F48" r:id="rId52"/>
+    <hyperlink ref="H40" r:id="rId53" display="mailto:garmanni@live.no"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId54"/>
 </worksheet>
 </file>